--- a/src/excel/SpanishEnglish-CASA5.xlsx
+++ b/src/excel/SpanishEnglish-CASA5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DETPC\Documents\JavaVSCodeProjects\LecturaImagenes\ReadingImages\src\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FE11EC2-70A5-4410-A58F-C0970B05B258}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{317E523D-2839-465D-B5D3-98A07EFB329B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{76994E30-0C85-4A79-8D5D-DEE19A57737F}"/>
   </bookViews>
@@ -32,14 +32,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="90">
   <si>
     <t>español</t>
   </si>
   <si>
-    <t>inglés</t>
-  </si>
-  <si>
     <t>clavo</t>
   </si>
   <si>
@@ -136,88 +133,175 @@
     <t>lente/luna</t>
   </si>
   <si>
+    <t>frente</t>
+  </si>
+  <si>
+    <t>forehead</t>
+  </si>
+  <si>
+    <t>lengua</t>
+  </si>
+  <si>
+    <t>tongue</t>
+  </si>
+  <si>
+    <t>diente</t>
+  </si>
+  <si>
+    <t>tooth</t>
+  </si>
+  <si>
+    <t>nuca</t>
+  </si>
+  <si>
+    <t>nape</t>
+  </si>
+  <si>
+    <t>pantorrilla</t>
+  </si>
+  <si>
+    <t>tobillo</t>
+  </si>
+  <si>
+    <t>ankle</t>
+  </si>
+  <si>
+    <t>antebrazo</t>
+  </si>
+  <si>
+    <t>forearm</t>
+  </si>
+  <si>
+    <t>sien</t>
+  </si>
+  <si>
+    <t>jaw</t>
+  </si>
+  <si>
+    <t>hoyuelos</t>
+  </si>
+  <si>
+    <t>dimples</t>
+  </si>
+  <si>
+    <t>fosa nasal</t>
+  </si>
+  <si>
+    <t>nostril</t>
+  </si>
+  <si>
+    <t>mandibula</t>
+  </si>
+  <si>
+    <t>shoes box</t>
+  </si>
+  <si>
+    <t>hardware/common nail</t>
+  </si>
+  <si>
+    <t>stripe track pant</t>
+  </si>
+  <si>
+    <t>sweatpant</t>
+  </si>
+  <si>
+    <t>christmas ornaments</t>
+  </si>
+  <si>
+    <t>temples</t>
+  </si>
+  <si>
     <t>lens</t>
   </si>
   <si>
-    <t>frente</t>
-  </si>
-  <si>
-    <t>forehead</t>
-  </si>
-  <si>
-    <t>lengua</t>
-  </si>
-  <si>
-    <t>tongue</t>
-  </si>
-  <si>
-    <t>diente</t>
-  </si>
-  <si>
-    <t>tooth</t>
-  </si>
-  <si>
-    <t>nuca</t>
-  </si>
-  <si>
-    <t>nape</t>
-  </si>
-  <si>
-    <t>pantorrilla</t>
-  </si>
-  <si>
-    <t>calf</t>
-  </si>
-  <si>
-    <t>tobillo</t>
-  </si>
-  <si>
-    <t>ankle</t>
-  </si>
-  <si>
-    <t>antebrazo</t>
-  </si>
-  <si>
-    <t>forearm</t>
-  </si>
-  <si>
-    <t>sien</t>
-  </si>
-  <si>
-    <t>temple</t>
-  </si>
-  <si>
-    <t>jaw</t>
-  </si>
-  <si>
-    <t>hoyuelos</t>
-  </si>
-  <si>
-    <t>dimples</t>
-  </si>
-  <si>
-    <t>fosa nasal</t>
-  </si>
-  <si>
-    <t>nostril</t>
-  </si>
-  <si>
-    <t>mandibula</t>
-  </si>
-  <si>
-    <t>shoes box</t>
-  </si>
-  <si>
-    <t>hardware/common nail</t>
-  </si>
-  <si>
-    <t>stripe track pant</t>
-  </si>
-  <si>
-    <t>sweatpant</t>
-  </si>
-  <si>
-    <t>christmas ornaments</t>
+    <t>calf muscle</t>
+  </si>
+  <si>
+    <t>jardwer/camen neol</t>
+  </si>
+  <si>
+    <t>shus bax</t>
+  </si>
+  <si>
+    <t>estr'aip track p'eant</t>
+  </si>
+  <si>
+    <t>esm'ol corregeited peiper bax</t>
+  </si>
+  <si>
+    <t>tin ruuf</t>
+  </si>
+  <si>
+    <t>cem'ent u'ol</t>
+  </si>
+  <si>
+    <t>dor lever jendol</t>
+  </si>
+  <si>
+    <t>dor lokset</t>
+  </si>
+  <si>
+    <t>dor nob</t>
+  </si>
+  <si>
+    <t>daining rum</t>
+  </si>
+  <si>
+    <t>cristmes ornaments</t>
+  </si>
+  <si>
+    <t>louer back</t>
+  </si>
+  <si>
+    <t>bird</t>
+  </si>
+  <si>
+    <t>irring</t>
+  </si>
+  <si>
+    <t>glases/aiglases</t>
+  </si>
+  <si>
+    <t>songlases</t>
+  </si>
+  <si>
+    <t>forjed</t>
+  </si>
+  <si>
+    <t>tong</t>
+  </si>
+  <si>
+    <t>tuf</t>
+  </si>
+  <si>
+    <t>neip</t>
+  </si>
+  <si>
+    <t>kaf mosol</t>
+  </si>
+  <si>
+    <t>enkol</t>
+  </si>
+  <si>
+    <t>forarm</t>
+  </si>
+  <si>
+    <t>tempols</t>
+  </si>
+  <si>
+    <t>yo</t>
+  </si>
+  <si>
+    <t>nostrol</t>
+  </si>
+  <si>
+    <t>finger</t>
+  </si>
+  <si>
+    <t>dimpols</t>
+  </si>
+  <si>
+    <t>su'etpent</t>
   </si>
 </sst>
 </file>
@@ -582,8 +666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EA876ED-98F7-43D9-A68F-1C760EAACB9A}">
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -597,13 +681,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -611,13 +695,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -625,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -639,13 +723,13 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1</v>
+        <v>89</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -653,13 +737,13 @@
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -667,13 +751,13 @@
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
         <v>8</v>
-      </c>
-      <c r="D6" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -681,13 +765,13 @@
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1</v>
+        <v>66</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -695,13 +779,13 @@
         <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -709,13 +793,13 @@
         <v>0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1</v>
+        <v>68</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -723,13 +807,13 @@
         <v>0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1</v>
+        <v>69</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -737,13 +821,13 @@
         <v>0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -751,13 +835,13 @@
         <v>0</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1</v>
+        <v>71</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D12" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -765,13 +849,13 @@
         <v>0</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1</v>
+        <v>87</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -779,13 +863,13 @@
         <v>0</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -793,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1</v>
+        <v>73</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -807,13 +891,13 @@
         <v>0</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1</v>
+        <v>74</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -821,13 +905,13 @@
         <v>0</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -835,13 +919,13 @@
         <v>0</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="C18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -849,13 +933,13 @@
         <v>0</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -863,13 +947,13 @@
         <v>0</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -877,13 +961,13 @@
         <v>0</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>1</v>
+        <v>78</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -891,13 +975,13 @@
         <v>0</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>1</v>
+        <v>79</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -905,13 +989,13 @@
         <v>0</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -919,13 +1003,13 @@
         <v>0</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>1</v>
+        <v>81</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -933,13 +1017,13 @@
         <v>0</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>1</v>
+        <v>82</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -947,13 +1031,13 @@
         <v>0</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -961,13 +1045,13 @@
         <v>0</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>1</v>
+        <v>84</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -975,13 +1059,13 @@
         <v>0</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>1</v>
+        <v>85</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -989,13 +1073,13 @@
         <v>0</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>1</v>
+        <v>88</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1003,13 +1087,13 @@
         <v>0</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>1</v>
+        <v>86</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
